--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1020794.064495215</v>
+        <v>1005002.436814066</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584667</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7172680.14402584</v>
+        <v>7172680.144025841</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>4.580549094716531</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>202.2946864288972</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>13.16315991169308</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0.3944287085478618</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.3971696935589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>16.91387525328438</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>45.56224815806257</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884923</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1549,7 +1549,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.567451325159</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>38.58919363706298</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,7 +1701,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>82.12649100043059</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
@@ -1740,10 +1740,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>155.4595575521395</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -1816,7 +1816,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>147.347200282567</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.7416984441011</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>41.27423204836394</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.136888730009664</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>114.7196543111938</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.83786409935501</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>204.4892714616868</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>272.8717590821513</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>296.0843437627834</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>87.08036771626205</v>
       </c>
       <c r="G21" t="n">
-        <v>103.9687257551895</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>149.7232056537451</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>43.03218749909075</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>90.03843863402115</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>116.8665424575324</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2400,22 +2400,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>9.049743378592021</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>35.39908632027007</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>50.77874055800475</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.60419956430017</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>156.6181844511241</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>47.91457209476242</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>91.68674581998047</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201824</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>192.1204999775662</v>
+        <v>92.47840864636518</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>130.8825105654506</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>249.7855038747309</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>53.92880121528968</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2931,10 +2931,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>94.3889776672351</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>208.186039944154</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>162.3083647370547</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>380.7637831219009</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
-        <v>20.94891527843992</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,16 +3114,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="H33" t="n">
-        <v>24.6481577642662</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.61815400345633</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>208.1860399441539</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.5578261904949</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
-        <v>120.6109559370161</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.92880121528968</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>60.36693997173198</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.35307017491654</v>
+        <v>23.23003910816257</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>97.45261585459369</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>122.1007820499204</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>172.5161931289808</v>
+        <v>219.9881595201824</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>9.584226926430567</v>
+        <v>136.2566308880123</v>
       </c>
       <c r="T40" t="n">
         <v>225.6194376234954</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>88.85488578130536</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>156.5325628886546</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
@@ -3800,13 +3800,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>82.28018995116422</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.0263176067414</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>187.9216174196133</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,22 +3980,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>289.8397079477309</v>
+        <v>202.2671848795364</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4059,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>47.97495438228717</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,7 +4071,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571426</v>
@@ -4107,10 +4107,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>60.36693997173198</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>101.5289465722279</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>50.39085407108821</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4367,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X2" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4647,46 +4647,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>338.3492772117056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>179.1118222062501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>32.57726423313503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>32.57726423313503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>487.2836868729568</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="10">
@@ -4957,10 +4957,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5045,31 +5045,31 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244547</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991245</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129221</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.198404760799</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
         <v>1613.411982645667</v>
@@ -5078,13 +5078,13 @@
         <v>1282.349095302096</v>
       </c>
       <c r="W11" t="n">
-        <v>929.5804400319819</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X11" t="n">
-        <v>556.1146817709021</v>
+        <v>929.1820271950653</v>
       </c>
       <c r="Y11" t="n">
-        <v>542.5821871309436</v>
+        <v>929.1820271950653</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>682.5765037404599</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>508.1234744593329</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D12" t="n">
-        <v>359.1890647980816</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>199.9516097926261</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>153.9291369056942</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
         <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007834</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5154,7 +5154,7 @@
         <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1520.640996459216</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
         <v>1266.403639731015</v>
@@ -5163,7 +5163,7 @@
         <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.791840760528</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
         <v>570.9156784273715</v>
@@ -5200,49 +5200,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="D14" t="n">
         <v>1757.628112035911</v>
@@ -5276,52 +5276,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2231.397293519465</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2011.414534151043</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.348101975183</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>790.348101975183</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>641.4136923139317</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>482.1762373084762</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>335.6416793353612</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>197.5667934680533</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5355,16 +5355,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076318</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161157</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>974.44769738329</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5379,28 +5379,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673871</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401369</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.348101975183</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5437,31 +5437,31 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.7843137019199</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765004</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826211</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T16" t="n">
         <v>46.89499644164432</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>405.1606950483948</v>
+        <v>995.259235403747</v>
       </c>
       <c r="C17" t="n">
-        <v>405.1606950483948</v>
+        <v>995.259235403747</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>995.259235403747</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>995.259235403747</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>584.2733306141395</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2087.181164129221</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U17" t="n">
-        <v>1833.394742014088</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V17" t="n">
-        <v>1833.394742014088</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W17" t="n">
-        <v>1480.626086743974</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X17" t="n">
-        <v>1107.160328482895</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="Y17" t="n">
-        <v>717.0209965070828</v>
+        <v>1381.859075467869</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="E18" t="n">
         <v>506.2543262569397</v>
@@ -5592,16 +5592,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>974.44769738329</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
         <v>1486.172378671464</v>
@@ -5628,16 +5628,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673871</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401369</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.1084007401369</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5674,49 +5674,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363101</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822332</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="V19" t="n">
-        <v>63.90293997634635</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="W19" t="n">
-        <v>63.90293997634635</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="X19" t="n">
-        <v>63.90293997634635</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.90293997634635</v>
+        <v>205.8715591182311</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1231.9155684869</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="C20" t="n">
-        <v>1231.9155684869</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="D20" t="n">
-        <v>873.6498698801497</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="E20" t="n">
-        <v>487.8616172819055</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F20" t="n">
-        <v>487.8616172819055</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G20" t="n">
-        <v>487.8616172819055</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H20" t="n">
         <v>212.2335778049849</v>
@@ -5750,52 +5750,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275672</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q20" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W20" t="n">
-        <v>1991.981166812102</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X20" t="n">
-        <v>1618.515408551022</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1618.515408551022</v>
+        <v>630.5053453221001</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551149</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>622.1327649551149</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>473.1983552938636</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E21" t="n">
-        <v>473.1983552938636</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="F21" t="n">
-        <v>326.6637973207486</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
         <v>221.6448824165167</v>
@@ -5832,22 +5832,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498454</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583292</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5865,16 +5865,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673871</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401369</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.348101975183</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1935.111806353959</v>
+        <v>90.36185250133195</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.876245087549</v>
+        <v>90.36185250133195</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.876245087549</v>
+        <v>90.36185250133195</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.876245087549</v>
+        <v>90.36185250133195</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="W22" t="n">
-        <v>2344.749822082216</v>
+        <v>318.3514033993493</v>
       </c>
       <c r="X22" t="n">
-        <v>2116.760271184198</v>
+        <v>90.36185250133195</v>
       </c>
       <c r="Y22" t="n">
-        <v>2116.760271184198</v>
+        <v>90.36185250133195</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>556.1146817709021</v>
+        <v>1192.394979505922</v>
       </c>
       <c r="C23" t="n">
-        <v>556.1146817709021</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D23" t="n">
-        <v>556.1146817709021</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E23" t="n">
-        <v>556.1146817709021</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F23" t="n">
-        <v>556.1146817709021</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G23" t="n">
-        <v>137.8429142537869</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>137.8429142537869</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -5993,16 +5993,16 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O23" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P23" t="n">
         <v>2224.886645733486</v>
@@ -6017,22 +6017,22 @@
         <v>2087.181164129221</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.198404760799</v>
+        <v>1969.134151545855</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645667</v>
+        <v>1969.134151545855</v>
       </c>
       <c r="V23" t="n">
-        <v>1282.349095302096</v>
+        <v>1969.134151545855</v>
       </c>
       <c r="W23" t="n">
-        <v>929.5804400319819</v>
+        <v>1969.134151545855</v>
       </c>
       <c r="X23" t="n">
-        <v>556.1146817709021</v>
+        <v>1969.134151545855</v>
       </c>
       <c r="Y23" t="n">
-        <v>556.1146817709021</v>
+        <v>1578.994819570043</v>
       </c>
     </row>
     <row r="24">
@@ -6048,19 +6048,19 @@
         <v>447.6797356739879</v>
       </c>
       <c r="D24" t="n">
-        <v>447.6797356739879</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="E24" t="n">
-        <v>288.4422806685324</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F24" t="n">
-        <v>288.4422806685324</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G24" t="n">
-        <v>150.3673948012245</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6069,22 +6069,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076318</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161157</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M24" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6166,31 +6166,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="U25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="V25" t="n">
-        <v>353.0840852304233</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="W25" t="n">
-        <v>63.66691519346267</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="X25" t="n">
-        <v>46.89499644164432</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.89499644164432</v>
+        <v>566.7843137019199</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1364.701464388593</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C26" t="n">
-        <v>1364.701464388593</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D26" t="n">
-        <v>1364.701464388593</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E26" t="n">
-        <v>1364.701464388593</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F26" t="n">
-        <v>953.715559598985</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G26" t="n">
-        <v>535.4437920818698</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>205.0951827559111</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2296.351264410739</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2296.351264410739</v>
       </c>
       <c r="T26" t="n">
-        <v>2124.767062713794</v>
+        <v>2076.368505042317</v>
       </c>
       <c r="U26" t="n">
-        <v>2124.767062713794</v>
+        <v>2076.368505042317</v>
       </c>
       <c r="V26" t="n">
-        <v>2124.767062713794</v>
+        <v>1745.305617698746</v>
       </c>
       <c r="W26" t="n">
-        <v>2124.767062713794</v>
+        <v>1745.305617698746</v>
       </c>
       <c r="X26" t="n">
-        <v>1751.301304452714</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="Y26" t="n">
-        <v>1751.301304452714</v>
+        <v>1371.839859437666</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551149</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739879</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127367</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5078710072812</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,22 +6306,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M27" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6330,25 +6330,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673871</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401369</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.348101975183</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J28" t="n">
         <v>46.89499644164432</v>
@@ -6403,31 +6403,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S28" t="n">
-        <v>391.0727469424308</v>
+        <v>195.7305522826211</v>
       </c>
       <c r="T28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.01163585398</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1578.183232104166</v>
+        <v>927.7199294114359</v>
       </c>
       <c r="C29" t="n">
-        <v>1209.220715163754</v>
+        <v>927.7199294114359</v>
       </c>
       <c r="D29" t="n">
-        <v>850.9550165570038</v>
+        <v>927.7199294114359</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1667639587595</v>
+        <v>927.7199294114359</v>
       </c>
       <c r="F29" t="n">
-        <v>465.1667639587595</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6461,22 +6461,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P29" t="n">
         <v>2224.886645733486</v>
@@ -6491,22 +6491,22 @@
         <v>2161.554709220192</v>
       </c>
       <c r="T29" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.57194985177</v>
       </c>
       <c r="U29" t="n">
-        <v>1909.246119447736</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V29" t="n">
-        <v>1578.183232104166</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W29" t="n">
-        <v>1578.183232104166</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="X29" t="n">
-        <v>1578.183232104166</v>
+        <v>1314.319769475558</v>
       </c>
       <c r="Y29" t="n">
-        <v>1578.183232104166</v>
+        <v>1314.319769475558</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498445</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583284</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213676</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6564,22 +6564,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="X30" t="n">
         <v>1364.854855989795</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1952.812428015456</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>397.4796441997909</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>397.4796441997909</v>
       </c>
       <c r="W31" t="n">
-        <v>2180.801978913474</v>
+        <v>397.4796441997909</v>
       </c>
       <c r="X31" t="n">
-        <v>1952.812428015456</v>
+        <v>397.4796441997909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1952.812428015456</v>
+        <v>397.4796441997909</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>876.152668748367</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="C32" t="n">
-        <v>876.152668748367</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="D32" t="n">
-        <v>876.152668748367</v>
+        <v>1228.27903577081</v>
       </c>
       <c r="E32" t="n">
-        <v>876.152668748367</v>
+        <v>842.4907831725659</v>
       </c>
       <c r="F32" t="n">
-        <v>465.1667639587595</v>
+        <v>431.5048783829583</v>
       </c>
       <c r="G32" t="n">
         <v>46.89499644164432</v>
@@ -6695,55 +6695,55 @@
         <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O32" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2323.589301598943</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>2323.589301598943</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U32" t="n">
-        <v>2323.589301598943</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V32" t="n">
-        <v>1992.526414255373</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W32" t="n">
-        <v>1639.757758985259</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="X32" t="n">
-        <v>1266.292000724179</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="Y32" t="n">
-        <v>876.152668748367</v>
+        <v>1586.544734377561</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551149</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739879</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127367</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072812</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F33" t="n">
-        <v>139.5078710072812</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="G33" t="n">
-        <v>139.5078710072812</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6780,13 +6780,13 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M33" t="n">
-        <v>974.44769738329</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N33" t="n">
         <v>1486.172378671464</v>
@@ -6813,16 +6813,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673871</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401369</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.348101975183</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>386.97599429278</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C34" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>236.8593548804443</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>236.8593548804443</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
         <v>46.89499644164432</v>
@@ -6859,7 +6859,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
         <v>194.9121237200977</v>
@@ -6901,7 +6901,7 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Y34" t="n">
-        <v>386.97599429278</v>
+        <v>397.479644199791</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1192.394979505922</v>
+        <v>1586.54473437756</v>
       </c>
       <c r="C35" t="n">
-        <v>823.4324625655099</v>
+        <v>1586.54473437756</v>
       </c>
       <c r="D35" t="n">
-        <v>465.1667639587595</v>
+        <v>1586.54473437756</v>
       </c>
       <c r="E35" t="n">
-        <v>465.1667639587595</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F35" t="n">
-        <v>465.1667639587595</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376118</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S35" t="n">
-        <v>2222.920573660987</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T35" t="n">
-        <v>2222.920573660987</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U35" t="n">
-        <v>1969.134151545855</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V35" t="n">
-        <v>1969.134151545855</v>
+        <v>1939.313389647674</v>
       </c>
       <c r="W35" t="n">
-        <v>1969.134151545855</v>
+        <v>1586.54473437756</v>
       </c>
       <c r="X35" t="n">
-        <v>1969.134151545855</v>
+        <v>1586.54473437756</v>
       </c>
       <c r="Y35" t="n">
-        <v>1578.994819570043</v>
+        <v>1586.54473437756</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7017,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M36" t="n">
         <v>1125.906134925503</v>
@@ -7038,13 +7038,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.276285501115</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="U36" t="n">
         <v>2062.095821155272</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>356.3143365704518</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I37" t="n">
         <v>46.89499644164432</v>
@@ -7114,31 +7114,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R37" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S37" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T37" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U37" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V37" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W37" t="n">
-        <v>123.0092087395398</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X37" t="n">
-        <v>123.0092087395398</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>356.3143365704518</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.152668748367</v>
+        <v>377.243605767603</v>
       </c>
       <c r="C38" t="n">
-        <v>876.152668748367</v>
+        <v>377.243605767603</v>
       </c>
       <c r="D38" t="n">
-        <v>876.152668748367</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7187,7 +7187,7 @@
         <v>1610.799342072556</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
         <v>2224.886645733486</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S38" t="n">
-        <v>2246.312836370505</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T38" t="n">
-        <v>2246.312836370505</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U38" t="n">
-        <v>1992.526414255373</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V38" t="n">
-        <v>1992.526414255373</v>
+        <v>1490.077859362919</v>
       </c>
       <c r="W38" t="n">
-        <v>1639.757758985259</v>
+        <v>1137.309204092805</v>
       </c>
       <c r="X38" t="n">
-        <v>1266.292000724179</v>
+        <v>763.8434458317248</v>
       </c>
       <c r="Y38" t="n">
-        <v>876.152668748367</v>
+        <v>763.8434458317248</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C39" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>193.4295544147593</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7257,10 +7257,10 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
         <v>1637.630816213676</v>
@@ -7278,25 +7278,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U39" t="n">
-        <v>1749.271049313092</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V39" t="n">
-        <v>1514.118941081349</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W39" t="n">
-        <v>1259.881584353148</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X39" t="n">
-        <v>1052.030084147615</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y39" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.8311793695512</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363101</v>
+        <v>2303.765562347825</v>
       </c>
       <c r="R40" t="n">
-        <v>453.4106385108906</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S40" t="n">
-        <v>443.7296012114658</v>
+        <v>2011.774666929464</v>
       </c>
       <c r="T40" t="n">
-        <v>215.8311793695512</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="U40" t="n">
-        <v>215.8311793695512</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="V40" t="n">
-        <v>215.8311793695512</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="W40" t="n">
-        <v>215.8311793695512</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="X40" t="n">
-        <v>215.8311793695512</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="Y40" t="n">
-        <v>215.8311793695512</v>
+        <v>1783.876245087549</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>581.1960947453966</v>
+        <v>505.6099232621625</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2335778049849</v>
+        <v>136.6474063217507</v>
       </c>
       <c r="D41" t="n">
-        <v>212.2335778049849</v>
+        <v>136.6474063217507</v>
       </c>
       <c r="E41" t="n">
-        <v>212.2335778049849</v>
+        <v>136.6474063217507</v>
       </c>
       <c r="F41" t="n">
-        <v>212.2335778049849</v>
+        <v>136.6474063217507</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
@@ -7433,28 +7433,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S41" t="n">
-        <v>2112.262577103716</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T41" t="n">
-        <v>1892.279817735294</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U41" t="n">
-        <v>1638.493395620161</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V41" t="n">
-        <v>1307.430508276591</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W41" t="n">
-        <v>954.6618530064766</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X41" t="n">
-        <v>581.1960947453966</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="Y41" t="n">
-        <v>581.1960947453966</v>
+        <v>892.2097633262842</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O42" t="n">
         <v>2039.343247810003</v>
@@ -7512,28 +7512,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136246</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="I43" t="n">
         <v>46.89499644164432</v>
@@ -7570,7 +7570,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200977</v>
@@ -7591,28 +7591,28 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R43" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S43" t="n">
-        <v>236.7148120170113</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T43" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U43" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="V43" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="W43" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="X43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1253.621336413443</v>
+        <v>995.2592354037465</v>
       </c>
       <c r="C44" t="n">
-        <v>1253.621336413443</v>
+        <v>995.2592354037465</v>
       </c>
       <c r="D44" t="n">
-        <v>1253.621336413443</v>
+        <v>636.9935367969961</v>
       </c>
       <c r="E44" t="n">
-        <v>1253.621336413443</v>
+        <v>251.2052841987518</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K44" t="n">
         <v>392.9020949275675</v>
@@ -7658,10 +7658,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7676,22 +7676,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.686934738645</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.686934738645</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X44" t="n">
-        <v>1640.221176477565</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="Y44" t="n">
-        <v>1640.221176477565</v>
+        <v>1381.859075467868</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7731,7 +7731,7 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M45" t="n">
         <v>974.44769738329</v>
@@ -7755,22 +7755,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.79484903870312</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="C46" t="n">
-        <v>97.79484903870312</v>
+        <v>1953.01418534104</v>
       </c>
       <c r="D46" t="n">
-        <v>97.79484903870312</v>
+        <v>1953.01418534104</v>
       </c>
       <c r="E46" t="n">
-        <v>97.79484903870312</v>
+        <v>1953.01418534104</v>
       </c>
       <c r="F46" t="n">
-        <v>97.79484903870312</v>
+        <v>1953.01418534104</v>
       </c>
       <c r="G46" t="n">
-        <v>97.79484903870312</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="H46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K46" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L46" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N46" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O46" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P46" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q46" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U46" t="n">
-        <v>318.5874281822332</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V46" t="n">
-        <v>318.5874281822332</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="W46" t="n">
-        <v>318.5874281822332</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="X46" t="n">
-        <v>318.5874281822332</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.79484903870312</v>
+        <v>2055.568676828139</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O12" t="n">
-        <v>330.2893092338455</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998484</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696955</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082737</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>402.1320537071161</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613913</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574067</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,13 +10665,13 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>462.7376461954049</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>307.2673352605753</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488641</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>415.7693643006702</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,10 +11379,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574063</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22550,10 +22550,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>155.3634430599709</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,16 +22629,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22790,22 +22790,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,16 +22826,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>201.1021466825878</v>
       </c>
     </row>
     <row r="7">
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>213.0080510862378</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,25 +23097,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>99.07228432480339</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.3366719699212</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.8407689624947</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23337,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>155.7946237350314</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>99.50696423532131</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.936681964082</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23495,10 +23495,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>142.7739680963409</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,7 +23589,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23.83730805897883</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23628,10 +23628,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>77.3410295972858</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>78.2722373409284</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.99214321937944</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>372.81481779358</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.3962949198577</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>42.92542614420709</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.9941160825823</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,13 +23905,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,22 +23932,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>21.13016616180863</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>54.1733641505478</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>73.64675691568561</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,19 +24048,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>57.98884467712183</v>
       </c>
       <c r="G21" t="n">
-        <v>32.72541125344534</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>17.52361544488278</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>102.3888605238405</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24148,7 +24148,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620183</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24224,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>73.64675691568605</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24257,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>100.9163893172051</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24288,22 +24288,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>138.3953221860467</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70.56471273913935</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>94.64230746492649</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620182</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24421,13 +24421,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>209.105455824737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.067011098583095</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006114</v>
+        <v>25.71523754529872</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -24500,7 +24500,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>53.38246657340341</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24570,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>5.910500182201929</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24622,7 +24622,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,16 +24643,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>33.49893764592917</v>
+        <v>133.1410289771302</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>275.9935351762608</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24731,19 +24731,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.463054019250336</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>143.6184697512199</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>111.3840075362424</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>78.10329385738214</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>124.2146335995363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,16 +24920,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>33.32526672004309</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>160.4142464549639</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
@@ -24980,10 +24980,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,16 +25002,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>60.36469784837671</v>
       </c>
       <c r="H33" t="n">
-        <v>81.31564129514322</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>124.8028940194749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>10.39861340794084</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3725438817668</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.75220579638776</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.910500182201744</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>137.1803309947776</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25330,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620182</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.2315831771783</v>
+        <v>195.3546142439322</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.91054587881015</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>205.6514764202145</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25482,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>53.38246657340352</v>
+        <v>5.910500182201929</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>204.94464130251</v>
+        <v>78.27223734092823</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>325.2341640606386</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.8305988447492</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,13 +25688,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25716,16 +25716,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>143.6184697512201</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>24.05200802215013</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620182</v>
@@ -25831,13 +25831,13 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>37.69782020388209</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,22 +25868,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>117.0363377939806</v>
+        <v>204.608860862175</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25947,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>99.47011118235159</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25995,10 +25995,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>165.5317197306524</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>65.71787452639997</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.9959429787327</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288916</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>432077.2935265364</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>432077.2935265363</v>
+        <v>432077.2935265364</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682914.0108927152</v>
+        <v>682914.0108927154</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682914.0108927151</v>
+        <v>682914.0108927152</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>682914.0108927151</v>
+        <v>682914.0108927152</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>682914.0108927152</v>
+        <v>682914.0108927154</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>682914.0108927153</v>
+        <v>682914.0108927152</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>682914.010892715</v>
+        <v>682914.0108927152</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>682914.0108927152</v>
+        <v>682914.0108927151</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>682914.0108927151</v>
+        <v>682914.0108927152</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>157852.6389047657</v>
       </c>
       <c r="C2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047657</v>
@@ -26323,13 +26323,13 @@
         <v>251157.2947760047</v>
       </c>
       <c r="F2" t="n">
-        <v>251157.2947760046</v>
+        <v>251157.2947760047</v>
       </c>
       <c r="G2" t="n">
         <v>251157.2947760047</v>
       </c>
       <c r="H2" t="n">
-        <v>251157.2947760045</v>
+        <v>251157.2947760047</v>
       </c>
       <c r="I2" t="n">
         <v>251157.2947760047</v>
@@ -26347,7 +26347,7 @@
         <v>251157.2947760047</v>
       </c>
       <c r="N2" t="n">
-        <v>251157.2947760047</v>
+        <v>251157.2947760046</v>
       </c>
       <c r="O2" t="n">
         <v>251157.2947760047</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789526</v>
+        <v>345612.3427789527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007597</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="E4" t="n">
-        <v>7284.960146632112</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="F4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="G4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="H4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="I4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="J4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="K4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="L4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="M4" t="n">
-        <v>7284.960146632112</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="N4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
-        <v>7284.960146632114</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="P4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22085.23535265982</v>
+        <v>20254.82754011393</v>
       </c>
       <c r="C6" t="n">
-        <v>102854.6668842076</v>
+        <v>101024.2590716616</v>
       </c>
       <c r="D6" t="n">
-        <v>102854.6668842076</v>
+        <v>101024.2590716616</v>
       </c>
       <c r="E6" t="n">
-        <v>-143961.7302750266</v>
+        <v>-145876.8770080817</v>
       </c>
       <c r="F6" t="n">
-        <v>201650.6125039259</v>
+        <v>199735.465770871</v>
       </c>
       <c r="G6" t="n">
-        <v>201650.612503926</v>
+        <v>199735.4657708709</v>
       </c>
       <c r="H6" t="n">
-        <v>201650.6125039259</v>
+        <v>199735.465770871</v>
       </c>
       <c r="I6" t="n">
-        <v>201650.612503926</v>
+        <v>199735.465770871</v>
       </c>
       <c r="J6" t="n">
-        <v>138590.6699048197</v>
+        <v>136675.5231717646</v>
       </c>
       <c r="K6" t="n">
-        <v>201650.6125039261</v>
+        <v>199735.465770871</v>
       </c>
       <c r="L6" t="n">
-        <v>201650.6125039259</v>
+        <v>199735.4657708708</v>
       </c>
       <c r="M6" t="n">
-        <v>115632.0786838501</v>
+        <v>113716.931950795</v>
       </c>
       <c r="N6" t="n">
-        <v>201650.6125039261</v>
+        <v>199735.4657708709</v>
       </c>
       <c r="O6" t="n">
-        <v>201650.612503926</v>
+        <v>199735.465770871</v>
       </c>
       <c r="P6" t="n">
-        <v>201650.6125039259</v>
+        <v>199735.4657708709</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062785</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="G4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="H4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="I4" t="n">
         <v>586.187455520554</v>
@@ -26817,7 +26817,7 @@
         <v>586.187455520554</v>
       </c>
       <c r="L4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="M4" t="n">
         <v>586.187455520554</v>
@@ -26826,7 +26826,7 @@
         <v>586.187455520554</v>
       </c>
       <c r="O4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="P4" t="n">
         <v>586.187455520554</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428948</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31756,25 +31756,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31783,16 +31783,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31859,7 +31859,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31868,10 +31868,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31993,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32020,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32096,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32105,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,25 +32230,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32257,16 +32257,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32333,7 +32333,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32342,10 +32342,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.213687673191069</v>
+        <v>1.213687673191068</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42967888306804</v>
+        <v>12.42967888306803</v>
       </c>
       <c r="I20" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J20" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525005</v>
       </c>
       <c r="K20" t="n">
         <v>154.3856233586785</v>
@@ -32494,16 +32494,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108853</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.6569078528415</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393905</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528546</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757689</v>
       </c>
       <c r="H21" t="n">
         <v>6.271645177087033</v>
@@ -32549,7 +32549,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454667</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32561,7 +32561,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025812</v>
       </c>
       <c r="O21" t="n">
         <v>154.5040580932971</v>
@@ -32570,10 +32570,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988236</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.3185327551517</v>
       </c>
       <c r="S21" t="n">
         <v>12.06195155538763</v>
@@ -32582,7 +32582,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051113</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031251</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618697</v>
       </c>
       <c r="I22" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836671</v>
       </c>
       <c r="J22" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K22" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354489</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823736</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069441</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545557</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598721</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292339</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464805</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031732</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786079</v>
       </c>
       <c r="U22" t="n">
         <v>0.02969555495471595</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35416,13 +35416,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O12" t="n">
-        <v>342.1971228826982</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35653,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674905</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35890,13 +35890,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>75.52871390503788</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788802</v>
       </c>
       <c r="K20" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848627</v>
       </c>
       <c r="L20" t="n">
         <v>373.4238170675629</v>
@@ -36130,13 +36130,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N20" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620587</v>
       </c>
       <c r="O20" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P20" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306803</v>
       </c>
       <c r="Q20" t="n">
         <v>121.0739155037673</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828881</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>167.9114421664597</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729033</v>
       </c>
       <c r="N21" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628014</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36218,7 +36218,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766203</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
@@ -36294,7 +36294,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781688</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.52871390503788</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651352</v>
@@ -36455,7 +36455,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M27" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N27" t="n">
         <v>516.8936174628016</v>
@@ -36692,7 +36692,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547477</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651352</v>
@@ -36926,7 +36926,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M33" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803102</v>
       </c>
       <c r="N33" t="n">
         <v>516.8936174628016</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M36" t="n">
-        <v>485.1417330183083</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
@@ -37625,13 +37625,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
-        <v>309.7110456222513</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37798,7 +37798,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037678</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2840556651352</v>
+        <v>370.3166381105401</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>453.3206074199182</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255822</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788805</v>
+        <v>91.0609347978879</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38099,10 +38099,10 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7227248725415</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M45" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
